--- a/_ctrGenRemoteMqtt/__calib.xlsx
+++ b/_ctrGenRemoteMqtt/__calib.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Informacion\__\_ctrGenRemoteMqtt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calib 1" sheetId="6" r:id="rId1"/>
     <sheet name="Calib 2" sheetId="7" r:id="rId2"/>
+    <sheet name="Calib 3" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>b</t>
   </si>
@@ -1445,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,4 +1608,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>553</v>
+      </c>
+      <c r="B2" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>747</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>618</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>B4-A7*A4</f>
+        <v>48.139534883720899</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>A6/-10</f>
+        <v>-4.81395348837209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>(B3-B4)/(A3-A4)</f>
+        <v>1.7829457364341086</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>A7*100</f>
+        <v>178.29457364341087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f>B12*B14/(B14+B15)</f>
+        <v>1.875</v>
+      </c>
+      <c r="C13">
+        <f>B13*1024/3.3</f>
+        <v>581.81818181818187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>B24*C24/10000 - D24/10</f>
+        <v>8.704699999999999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>553</v>
+      </c>
+      <c r="C24">
+        <v>199</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:A26" si="0">B25*C25/10000 - D25/10</f>
+        <v>11.1524</v>
+      </c>
+      <c r="B25" s="2">
+        <v>676</v>
+      </c>
+      <c r="C25">
+        <v>199</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>7.311700000000001</v>
+      </c>
+      <c r="B26" s="2">
+        <v>483</v>
+      </c>
+      <c r="C26">
+        <v>199</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>